--- a/biology/Zoologie/Jean-Pierre_Heudelot/Jean-Pierre_Heudelot.xlsx
+++ b/biology/Zoologie/Jean-Pierre_Heudelot/Jean-Pierre_Heudelot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Pierre François Heudelot, né à Vesoul le 27 avril 1803 et mort le 7 octobre 1837 à Bakel (Sénégal), est un naturaliste et explorateur français.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il collecte des plantes à Madagascar puis au Cap Vert avant de devenir directeur des cultures royales du Sénégal de 1825 à 1831. Il y est chargé de mission par le Muséum d'histoire naturelle (1830-1837)[1]. Accueilli par Adrien Partarrieu, Heudelot constitue un important herbier de plantes de la Sénégambie[2] en explorant la rive gauche du fleuve Sénégal de Saint-Louis à Galam[1]. Il visite ainsi les royaumes du Cayor, Baol, Saloum et de Casamance ainsi que les parages de la Falémé[1].
-Il meurt de fièvre à Bakel en octobre 1837[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il collecte des plantes à Madagascar puis au Cap Vert avant de devenir directeur des cultures royales du Sénégal de 1825 à 1831. Il y est chargé de mission par le Muséum d'histoire naturelle (1830-1837). Accueilli par Adrien Partarrieu, Heudelot constitue un important herbier de plantes de la Sénégambie en explorant la rive gauche du fleuve Sénégal de Saint-Louis à Galam. Il visite ainsi les royaumes du Cayor, Baol, Saloum et de Casamance ainsi que les parages de la Falémé.
+Il meurt de fièvre à Bakel en octobre 1837.
 </t>
         </is>
       </c>
